--- a/Input File/My Bills and Income.xlsx
+++ b/Input File/My Bills and Income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker\target\Input File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker 1.2\Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE9DF9-2787-45FD-8D15-CEDA0A821B66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1018C-A528-4CE0-9611-EDCDB3D073A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +38,9 @@
     <t>Expense Description</t>
   </si>
   <si>
+    <t>User ID</t>
+  </si>
+  <si>
     <t>Income Category</t>
   </si>
   <si>
@@ -42,51 +48,6 @@
   </si>
   <si>
     <t>Income Description</t>
-  </si>
-  <si>
-    <t>State Tax</t>
-  </si>
-  <si>
-    <t>Federal Withholding</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>OASDI</t>
-  </si>
-  <si>
-    <t>Vision</t>
-  </si>
-  <si>
-    <t>Met Life Supplemental AD&amp;D</t>
-  </si>
-  <si>
-    <t>H-S-A</t>
-  </si>
-  <si>
-    <t>Dental</t>
-  </si>
-  <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t>Accident Insurance</t>
-  </si>
-  <si>
-    <t>Supplemental Life</t>
-  </si>
-  <si>
-    <t>Critical Illness Insurance</t>
-  </si>
-  <si>
-    <t>User Id</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>User ID</t>
   </si>
 </sst>
 </file>
@@ -440,36 +401,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD922"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -479,87 +442,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Input File/My Bills and Income.xlsx
+++ b/Input File/My Bills and Income.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker 1.2\Input File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker 1.3\Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1018C-A528-4CE0-9611-EDCDB3D073A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B051C66-2E59-4F53-BE8C-78F371790D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Expense Description</t>
-  </si>
-  <si>
-    <t>User ID</t>
   </si>
   <si>
     <t>Income Category</t>
@@ -399,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD974"/>
@@ -407,15 +404,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,9 +426,6 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -442,7 +435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD108"/>
@@ -455,10 +448,9 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,16 +458,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Input File/My Bills and Income.xlsx
+++ b/Input File/My Bills and Income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker 1.3\Input File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\My Java programs\FinancialCalculator Versions\FinanaceTracker Excel Versions\FinanceTracker 2.2\Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B051C66-2E59-4F53-BE8C-78F371790D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F0F9F8-5B54-45A1-9192-B47B0FACF00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -80,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,33 +407,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD974"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -437,37 +446,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD108"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>